--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\gasolina\bicimoto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>golon precio</t>
   </si>
@@ -57,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,6 +111,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -153,7 +161,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,7 +196,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -399,8 +407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +488,7 @@
         <v>7</v>
       </c>
       <c r="K12" s="1">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="L12" t="s">
         <v>10</v>
@@ -491,7 +499,7 @@
         <v>8</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="L13" t="s">
         <v>2</v>
@@ -499,8 +507,8 @@
       <c r="M13" t="s">
         <v>9</v>
       </c>
-      <c r="N13">
-        <v>3.4</v>
+      <c r="N13" s="1">
+        <v>14.5</v>
       </c>
     </row>
     <row r="14" spans="4:14" x14ac:dyDescent="0.25">
@@ -509,27 +517,37 @@
       </c>
       <c r="K14">
         <f>(K13*K12)/3.7</f>
-        <v>3.3783783783783781</v>
+        <v>14.5</v>
       </c>
       <c r="M14" t="s">
         <v>2</v>
       </c>
       <c r="N14">
         <f>(N13*3.7)/K12</f>
-        <v>1.0064</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="16" spans="4:14" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I17">
+        <f>(K13*160)/3.7</f>
+        <v>160</v>
+      </c>
+      <c r="J17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17">
         <f>(N14*160)/3.7</f>
-        <v>43.519999999999996</v>
-      </c>
-      <c r="J17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" t="s">
         <v>11</v>
       </c>
     </row>
